--- a/クリックポスト発送情報/20200807210651/英子日本发货表格8.7.xlsx
+++ b/クリックポスト発送情報/20200807210651/英子日本发货表格8.7.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="116">
   <si>
     <t>序号</t>
   </si>
@@ -367,6 +367,50 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>628556654261</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>628556654250</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>628556654246</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>628556654235</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>628556654224</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>628556654213</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>628556654202</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>628556654191</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>628556654180</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>628556654176</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>628556654165</t>
     <phoneticPr fontId="16"/>
   </si>
 </sst>
@@ -375,7 +419,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -528,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -628,12 +672,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -646,7 +693,7 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1723,7 +1770,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K18"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -2098,7 +2145,9 @@
       <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="40" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="12" t="s">
@@ -2123,7 +2172,7 @@
       <c r="I3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="39"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
       <c r="A4" s="15" t="s">
@@ -2148,7 +2197,9 @@
       <c r="I4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="39"/>
+      <c r="K4" s="40" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
       <c r="A5" s="18" t="s">
@@ -2173,7 +2224,9 @@
       <c r="I5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="39"/>
+      <c r="K5" s="40" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
       <c r="A6" s="18" t="s">
@@ -2198,7 +2251,9 @@
       <c r="I6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="39"/>
+      <c r="K6" s="40" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
       <c r="A7" s="18" t="s">
@@ -2223,7 +2278,9 @@
       <c r="I7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="39"/>
+      <c r="K7" s="40" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
       <c r="A8" s="18" t="s">
@@ -2248,7 +2305,7 @@
       <c r="I8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="39"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
       <c r="A9" s="21" t="s">
@@ -2273,10 +2330,12 @@
       <c r="I9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="39"/>
+      <c r="K9" s="40" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="22"/>
@@ -2286,22 +2345,22 @@
       <c r="D10" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="39"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A11" s="36"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="22"/>
       <c r="C11" s="21" t="s">
         <v>66</v>
@@ -2309,11 +2368,11 @@
       <c r="D11" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="K11" s="39"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="1:181" ht="121.95" customHeight="1">
       <c r="A12" s="21" t="s">
@@ -2338,7 +2397,7 @@
       <c r="I12" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="39"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" spans="1:181" ht="121.95" customHeight="1">
       <c r="A13" s="24" t="s">
@@ -2363,10 +2422,12 @@
       <c r="I13" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="39"/>
+      <c r="K13" s="40" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="14" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="38" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="25"/>
@@ -2376,22 +2437,24 @@
       <c r="D14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="39"/>
+      <c r="K14" s="40" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="15" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="25"/>
       <c r="C15" s="24" t="s">
         <v>85</v>
@@ -2399,11 +2462,13 @@
       <c r="D15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="K15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="K15" s="40" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="16" spans="1:181" ht="121.95" customHeight="1">
       <c r="A16" s="24" t="s">
@@ -2428,7 +2493,7 @@
       <c r="I16" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="39"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" ht="121.95" customHeight="1">
       <c r="A17" s="27" t="s">
@@ -2453,7 +2518,9 @@
       <c r="I17" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="39"/>
+      <c r="K17" s="40" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="121.95" customHeight="1">
       <c r="A18" s="27" t="s">
@@ -2478,7 +2545,9 @@
       <c r="I18" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="K18" s="39"/>
+      <c r="K18" s="40" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="121.95" customHeight="1"/>
     <row r="20" spans="1:11" ht="121.95" customHeight="1"/>
